--- a/data/trans_bre/P1806_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1806_2023-Clase-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>2.292472300778584</v>
+        <v>2.292472300778585</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.6950363240949848</v>
+        <v>0.6950363240949852</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.05504272761890557</v>
+        <v>-0.3154524174408214</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.07779932773184395</v>
+        <v>-0.09993992003645913</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.743521869459456</v>
+        <v>4.686293522879696</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2.112309439016926</v>
+        <v>2.223673280661715</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.292309489614659</v>
+        <v>1.243908466353599</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2404655938822566</v>
+        <v>0.2396145391245934</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.393525170036152</v>
+        <v>6.646123109044638</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.673353346320835</v>
+        <v>2.829063367948666</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.509275884243232</v>
+        <v>3.41740996867537</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1.411089672980927</v>
+        <v>1.358757356655857</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.21493726213204</v>
+        <v>9.830421560696911</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>12.5321624319515</v>
+        <v>13.16868936294519</v>
       </c>
     </row>
     <row r="13">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.200520589097827</v>
+        <v>1.256109236145906</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3792631920017022</v>
+        <v>0.3892710773481663</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.208167920394612</v>
+        <v>4.237571683884177</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.702767325121845</v>
+        <v>2.62405153500673</v>
       </c>
     </row>
     <row r="16">
@@ -739,7 +739,7 @@
         <v>3.769216787373776</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>3.412057009596923</v>
+        <v>3.412057009596922</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.26412256713502</v>
+        <v>2.344654710841328</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>1.1119154922503</v>
+        <v>1.174094205583851</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.988926869019799</v>
+        <v>5.14130124638008</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8.20427411808766</v>
+        <v>9.146710327733569</v>
       </c>
     </row>
     <row r="19">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.8356114859480877</v>
+        <v>0.8356114859480891</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.2914229177334801</v>
+        <v>0.2914229177334806</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.861647024778934</v>
+        <v>-4.745244564818916</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6296562668560257</v>
+        <v>-0.6322856741678993</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.212963795252957</v>
+        <v>3.126894306574374</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.344709364109737</v>
+        <v>3.678397437304674</v>
       </c>
     </row>
     <row r="22">
@@ -831,7 +831,7 @@
         <v>2.834296378145438</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1.245300143452959</v>
+        <v>1.245300143452958</v>
       </c>
     </row>
     <row r="23">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.897920665463291</v>
+        <v>2.071906937799099</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.6940592276106035</v>
+        <v>0.7639700251950133</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.60301637992114</v>
+        <v>3.595964596074132</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>1.930385927281059</v>
+        <v>1.904914029200632</v>
       </c>
     </row>
     <row r="25">
